--- a/Resources/StreamLine App Automator Resources/Skeletons/test.xlsx
+++ b/Resources/StreamLine App Automator Resources/Skeletons/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine App Automator Resources\Skeletons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA549BA-9C38-487D-9327-D30AD82B8C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00925DF1-3E2C-45B1-93C1-2A3D5E863503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,8 +666,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -758,8 +760,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
